--- a/storage/csv/loans/RES-LBP-COMMODITY-LOAN.xlsx
+++ b/storage/csv/loans/RES-LBP-COMMODITY-LOAN.xlsx
@@ -1,5 +1,751 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="27945" windowHeight="12480"/>
+  </bookViews>
+  <sheets>
+    <sheet name="AGING" sheetId="4" r:id="rId1"/>
+  </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AGING!$B$1:$I$2</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>MEMBERS ID</t>
+  </si>
+  <si>
+    <t>REFERENCE NUMBER</t>
+  </si>
+  <si>
+    <t>MEMBERS NAME</t>
+  </si>
+  <si>
+    <t>LOAN TYPE</t>
+  </si>
+  <si>
+    <t>DATE APPLIED</t>
+  </si>
+  <si>
+    <t>DESIRED AMOUNT</t>
+  </si>
+  <si>
+    <t>NUMBER OF TERMS</t>
+  </si>
+  <si>
+    <t>ADJUSTED TERM</t>
+  </si>
+  <si>
+    <t>BALANCE TO FORWARD</t>
+  </si>
+  <si>
+    <t>SKSUMPC-0000-000104</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>DAGON, ANACELLE</t>
+  </si>
+  <si>
+    <t>RESTRUCTURE LBP- COMMODITY LOAN</t>
+  </si>
+  <si>
+    <t>Jun 02, 2022</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="25">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="36"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="0"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="32">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="12">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="50">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="50">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="49"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00000000"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office 2007-2010">
@@ -283,6 +1029,87 @@
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="31.2190476190476" customWidth="1"/>
+    <col min="2" max="2" width="26.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="19.1047619047619" customWidth="1"/>
+    <col min="4" max="4" width="35.552380952381" customWidth="1"/>
+    <col min="5" max="5" width="19.1047619047619" customWidth="1"/>
+    <col min="6" max="6" width="22.8857142857143" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="21.7809523809524" customWidth="1"/>
+    <col min="9" max="9" width="35.4380952380952" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7">
+        <v>77260.39</v>
+      </c>
+      <c r="G2" s="8">
+        <v>24</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9">
+        <v>53905.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" scale="90" orientation="landscape"/>
+  <headerFooter/>
+</worksheet>
 </file>